--- a/assets/2022-October.xlsx
+++ b/assets/2022-October.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://impetusinfotech-my.sharepoint.com/personal/maneesh_thareja_impetus_com/Documents/Maneesh/Arch/Cloud Tech Radar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\poc\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E1AC5A6F-2B36-4EC4-A88F-D2AAECEFEEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E9F937-766E-46D4-A9A7-DEC9A98FC8A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5082E1-CE93-47CA-8C08-F7E1E70B0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="V1 - old" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$F$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'V1 - old'!$A$1:$G$78</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="425">
   <si>
     <t>No.</t>
   </si>
@@ -1432,10 +1432,16 @@
     <t>https://docs.microsoft.com/en-us/azure/analysis-services/</t>
   </si>
   <si>
-    <t xml:space="preserve">Blip </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changed </t>
+    <t>Blip</t>
+  </si>
+  <si>
+    <t>New Added</t>
+  </si>
+  <si>
+    <t>Changed</t>
+  </si>
+  <si>
+    <t>Unchanged</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1814,12 +1820,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,6 +1958,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2056,14 +2072,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Varun Kumar" refreshedDate="44844.480147222224" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="59" xr:uid="{A29467A5-CB4A-4C4A-A1CA-EE98BE59EC90}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:D58" sheet="Data"/>
+    <worksheetSource ref="B1:D60" sheet="Data"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Quadrant" numFmtId="0">
@@ -2459,7 +2471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B06193AE-16E4-44EE-AEC3-8772FE35BB4A}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B06193AE-16E4-44EE-AEC3-8772FE35BB4A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -2837,25 +2849,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39697DEB-70E1-487B-B038-2F697CCAD945}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2874,11 +2886,11 @@
       <c r="F1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2897,8 +2909,11 @@
       <c r="F2" s="36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <f>A2+1</f>
         <v>2</v>
@@ -2918,10 +2933,13 @@
       <c r="F3" s="36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <f t="shared" ref="A4:A58" si="0">A3+1</f>
+        <f t="shared" ref="A4:A60" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -2939,8 +2957,11 @@
       <c r="F4" s="36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2960,8 +2981,11 @@
       <c r="F5" s="36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2981,8 +3005,11 @@
       <c r="F6" s="36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3002,8 +3029,11 @@
       <c r="F7" s="36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3023,8 +3053,11 @@
       <c r="F8" s="36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3044,8 +3077,11 @@
       <c r="F9" s="36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3065,8 +3101,11 @@
       <c r="F10" s="36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G10" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3086,8 +3125,11 @@
       <c r="F11" s="36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3107,8 +3149,11 @@
       <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3128,8 +3173,11 @@
       <c r="F13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f>A13+1</f>
         <v>13</v>
@@ -3149,8 +3197,11 @@
       <c r="F14" s="36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3170,8 +3221,11 @@
       <c r="F15" s="36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3191,8 +3245,11 @@
       <c r="F16" s="36" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="G16" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="232" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3212,8 +3269,11 @@
       <c r="F17" s="36" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G17" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3233,8 +3293,11 @@
       <c r="F18" s="36" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3254,8 +3317,11 @@
       <c r="F19" s="36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3275,8 +3341,11 @@
       <c r="F20" s="36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3296,8 +3365,11 @@
       <c r="F21" s="36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3317,8 +3389,11 @@
       <c r="F22" s="36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3338,8 +3413,11 @@
       <c r="F23" s="36" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3359,8 +3437,11 @@
       <c r="F24" s="36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3380,8 +3461,11 @@
       <c r="F25" s="36" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3401,29 +3485,35 @@
       <c r="F26" s="36" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3432,19 +3522,22 @@
         <v>37</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3453,82 +3546,94 @@
         <v>37</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>104</v>
+      <c r="E30" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>106</v>
+        <v>44</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>107</v>
+        <v>9</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3537,40 +3642,46 @@
         <v>44</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>114</v>
+        <v>91</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3579,40 +3690,46 @@
         <v>37</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3621,19 +3738,22 @@
         <v>44</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>126</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3642,19 +3762,22 @@
         <v>44</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3663,82 +3786,94 @@
         <v>44</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>141</v>
+        <v>91</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3747,40 +3882,46 @@
         <v>37</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>144</v>
+        <v>9</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>44</v>
+      <c r="B44" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3789,19 +3930,22 @@
         <v>44</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3810,19 +3954,22 @@
         <v>44</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3831,64 +3978,70 @@
         <v>44</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>158</v>
+        <v>44</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>159</v>
+      <c r="E48" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>7</v>
+      <c r="B49" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3897,61 +4050,70 @@
         <v>7</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>167</v>
+      <c r="B51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="41" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>170</v>
+      <c r="C52" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E52" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3960,22 +4122,22 @@
         <v>89</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3984,22 +4146,22 @@
         <v>89</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4008,19 +4170,22 @@
         <v>89</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4029,22 +4194,22 @@
         <v>89</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4053,19 +4218,22 @@
         <v>89</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4074,65 +4242,117 @@
         <v>89</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>186</v>
       </c>
       <c r="E58" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A59" s="17">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F59" s="36" t="s">
         <v>191</v>
       </c>
+      <c r="G59" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="17">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F58" xr:uid="{39697DEB-70E1-487B-B038-2F697CCAD945}"/>
+  <autoFilter ref="A1:F60" xr:uid="{39697DEB-70E1-487B-B038-2F697CCAD945}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:B58 B21 B2:B10 B30 B41 B13:B15 B24:B26 B36:B39 B17:B19 B32:B33" xr:uid="{286093FB-FEB3-4D68-B709-D4E29F21FB73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:B60 B21 B2:B10 B31 B42 B13:B15 B24:B27 B37:B40 B17:B19 B33:B34" xr:uid="{286093FB-FEB3-4D68-B709-D4E29F21FB73}">
       <formula1>$K$4:$K$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{1C650293-28E5-4203-86ED-0E0E246726FA}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{9DCBA172-37D4-4AC6-802C-99ABD3D7C476}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{941C1C07-8004-4808-9963-BAC7C39E5033}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{015527FA-5009-4DFD-9C92-88C60E672D1A}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{7A487A35-3AF2-43C4-A5D8-0D72D88C4C8B}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{298594B8-F17D-492E-A102-E70860994473}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{6B387AC2-3295-4E3A-A4CA-E751D4163D6A}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{98DFADFB-0DE2-4F17-A243-103B38426DDD}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{EABC21A0-DB17-4ADE-94CD-A95379F32E81}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{64D02283-71F5-472B-B6C9-008E07FF14A9}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{82108C94-FB4F-45EB-AC79-1B302CCA0B4D}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{15E6639A-333C-4E4F-A49D-81C24CCC18FD}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{683F748E-26AD-4AD8-85D0-85871F34E059}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{FE45B6BF-4191-4579-8FF0-1942466CE01F}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{938CCFD0-743A-468C-BC29-46EB1C4618E8}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{15168D06-4959-4E1B-AE59-D4ED5671786B}"/>
-    <hyperlink ref="F31" r:id="rId17" xr:uid="{02E8F9A0-9675-4B8B-AAA9-E05BE190A537}"/>
-    <hyperlink ref="F32" r:id="rId18" xr:uid="{9D94CF7D-AAFC-40B0-A1EB-6E2D51989DEE}"/>
-    <hyperlink ref="F33" r:id="rId19" xr:uid="{D2EAE47A-DE1B-495F-8295-2CBAA91B05C0}"/>
-    <hyperlink ref="F34" r:id="rId20" xr:uid="{CE4773DC-5BDB-43E1-8710-CFD439CB1C51}"/>
-    <hyperlink ref="F35" r:id="rId21" xr:uid="{33B78E50-DBDD-4535-B769-19E3CF640F61}"/>
-    <hyperlink ref="F37" r:id="rId22" xr:uid="{42D9ABC0-0189-4148-B038-094E0F3FB8F0}"/>
-    <hyperlink ref="F38" r:id="rId23" xr:uid="{01DE2A95-6746-4A37-8211-9AF02197A27C}"/>
-    <hyperlink ref="F41" r:id="rId24" xr:uid="{F50E4E25-D0D4-4172-8080-BBCA7F2CECF7}"/>
-    <hyperlink ref="F43" r:id="rId25" xr:uid="{8E54BEF0-368F-4FAC-9F8D-B0A08C1A46F5}"/>
-    <hyperlink ref="F45" r:id="rId26" xr:uid="{8043D35A-9C00-409B-B529-098A624A8787}"/>
-    <hyperlink ref="F46" r:id="rId27" xr:uid="{106E58F8-65E5-4906-BAE9-3ACE61594BF3}"/>
-    <hyperlink ref="F47" r:id="rId28" xr:uid="{987BEA4F-094E-49BF-8ECA-E7B2784712CD}"/>
-    <hyperlink ref="F48" r:id="rId29" xr:uid="{02CB3336-92EF-414B-A576-A0452CE806A1}"/>
-    <hyperlink ref="F51" r:id="rId30" xr:uid="{4E00A2F1-8744-40B5-851B-DE6D5853ED91}"/>
-    <hyperlink ref="F52" r:id="rId31" xr:uid="{E488D207-6BF4-405A-B9AC-0CCAFFFBA2AD}"/>
-    <hyperlink ref="F53" r:id="rId32" xr:uid="{2E5ED3F8-0A77-47D4-859F-6A04D136D993}"/>
-    <hyperlink ref="F54" r:id="rId33" xr:uid="{4FBB4D6F-03E1-43E2-94ED-05E5A026C553}"/>
-    <hyperlink ref="F55" r:id="rId34" xr:uid="{0AEECB89-09BD-4F31-82C0-D1DC25FF63F2}"/>
-    <hyperlink ref="F56" r:id="rId35" xr:uid="{9E88C6E3-19C2-4710-8A78-0C7E7E60E603}"/>
-    <hyperlink ref="F57" r:id="rId36" xr:uid="{057F9AB3-18AA-4706-9181-68E848F20B27}"/>
-    <hyperlink ref="F58" r:id="rId37" xr:uid="{C77A561D-A4A7-41E2-89EA-50C26B9C5114}"/>
-    <hyperlink ref="F49" r:id="rId38" xr:uid="{D6793289-09CB-4E4B-8F2B-D1A28BE9B4F6}"/>
-    <hyperlink ref="F50" r:id="rId39" xr:uid="{847F9CF4-7E02-4D4F-BC85-F2AA70D91C16}"/>
+    <hyperlink ref="F32" r:id="rId3" xr:uid="{02E8F9A0-9675-4B8B-AAA9-E05BE190A537}"/>
+    <hyperlink ref="F33" r:id="rId4" xr:uid="{9D94CF7D-AAFC-40B0-A1EB-6E2D51989DEE}"/>
+    <hyperlink ref="F34" r:id="rId5" xr:uid="{D2EAE47A-DE1B-495F-8295-2CBAA91B05C0}"/>
+    <hyperlink ref="F35" r:id="rId6" xr:uid="{CE4773DC-5BDB-43E1-8710-CFD439CB1C51}"/>
+    <hyperlink ref="F36" r:id="rId7" xr:uid="{33B78E50-DBDD-4535-B769-19E3CF640F61}"/>
+    <hyperlink ref="F38" r:id="rId8" xr:uid="{42D9ABC0-0189-4148-B038-094E0F3FB8F0}"/>
+    <hyperlink ref="F39" r:id="rId9" xr:uid="{01DE2A95-6746-4A37-8211-9AF02197A27C}"/>
+    <hyperlink ref="F42" r:id="rId10" xr:uid="{F50E4E25-D0D4-4172-8080-BBCA7F2CECF7}"/>
+    <hyperlink ref="F44" r:id="rId11" xr:uid="{8E54BEF0-368F-4FAC-9F8D-B0A08C1A46F5}"/>
+    <hyperlink ref="F46" r:id="rId12" xr:uid="{8043D35A-9C00-409B-B529-098A624A8787}"/>
+    <hyperlink ref="F47" r:id="rId13" xr:uid="{106E58F8-65E5-4906-BAE9-3ACE61594BF3}"/>
+    <hyperlink ref="F48" r:id="rId14" xr:uid="{987BEA4F-094E-49BF-8ECA-E7B2784712CD}"/>
+    <hyperlink ref="F49" r:id="rId15" xr:uid="{02CB3336-92EF-414B-A576-A0452CE806A1}"/>
+    <hyperlink ref="F52" r:id="rId16" xr:uid="{4E00A2F1-8744-40B5-851B-DE6D5853ED91}"/>
+    <hyperlink ref="F53" r:id="rId17" xr:uid="{E488D207-6BF4-405A-B9AC-0CCAFFFBA2AD}"/>
+    <hyperlink ref="F54" r:id="rId18" xr:uid="{2E5ED3F8-0A77-47D4-859F-6A04D136D993}"/>
+    <hyperlink ref="F55" r:id="rId19" xr:uid="{4FBB4D6F-03E1-43E2-94ED-05E5A026C553}"/>
+    <hyperlink ref="F56" r:id="rId20" xr:uid="{0AEECB89-09BD-4F31-82C0-D1DC25FF63F2}"/>
+    <hyperlink ref="F57" r:id="rId21" xr:uid="{9E88C6E3-19C2-4710-8A78-0C7E7E60E603}"/>
+    <hyperlink ref="F58" r:id="rId22" xr:uid="{057F9AB3-18AA-4706-9181-68E848F20B27}"/>
+    <hyperlink ref="F59" r:id="rId23" xr:uid="{C77A561D-A4A7-41E2-89EA-50C26B9C5114}"/>
+    <hyperlink ref="F60" r:id="rId24" xr:uid="{197C950C-C20D-44E1-B021-CBAB6D726754}"/>
+    <hyperlink ref="F50" r:id="rId25" xr:uid="{D6793289-09CB-4E4B-8F2B-D1A28BE9B4F6}"/>
+    <hyperlink ref="F51" r:id="rId26" xr:uid="{847F9CF4-7E02-4D4F-BC85-F2AA70D91C16}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{15168D06-4959-4E1B-AE59-D4ED5671786B}"/>
+    <hyperlink ref="F18" r:id="rId28" xr:uid="{938CCFD0-743A-468C-BC29-46EB1C4618E8}"/>
+    <hyperlink ref="F17" r:id="rId29" xr:uid="{FE45B6BF-4191-4579-8FF0-1942466CE01F}"/>
+    <hyperlink ref="F16" r:id="rId30" xr:uid="{683F748E-26AD-4AD8-85D0-85871F34E059}"/>
+    <hyperlink ref="F15" r:id="rId31" xr:uid="{15E6639A-333C-4E4F-A49D-81C24CCC18FD}"/>
+    <hyperlink ref="F14" r:id="rId32" xr:uid="{82108C94-FB4F-45EB-AC79-1B302CCA0B4D}"/>
+    <hyperlink ref="F12" r:id="rId33" xr:uid="{64D02283-71F5-472B-B6C9-008E07FF14A9}"/>
+    <hyperlink ref="F11" r:id="rId34" xr:uid="{EABC21A0-DB17-4ADE-94CD-A95379F32E81}"/>
+    <hyperlink ref="F10" r:id="rId35" xr:uid="{98DFADFB-0DE2-4F17-A243-103B38426DDD}"/>
+    <hyperlink ref="F9" r:id="rId36" xr:uid="{6B387AC2-3295-4E3A-A4CA-E751D4163D6A}"/>
+    <hyperlink ref="F8" r:id="rId37" xr:uid="{298594B8-F17D-492E-A102-E70860994473}"/>
+    <hyperlink ref="F7" r:id="rId38" xr:uid="{7A487A35-3AF2-43C4-A5D8-0D72D88C4C8B}"/>
+    <hyperlink ref="F5" r:id="rId39" xr:uid="{015527FA-5009-4DFD-9C92-88C60E672D1A}"/>
+    <hyperlink ref="F4" r:id="rId40" xr:uid="{941C1C07-8004-4808-9963-BAC7C39E5033}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4142,35 +4362,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E684D46-9AE2-40D3-B932-05F3FFB977D8}">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.90625" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="47" t="s">
         <v>198</v>
       </c>
@@ -4184,72 +4404,72 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="60"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="58"/>
+      <c r="C5" s="61"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="60"/>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="58"/>
+      <c r="C6" s="61"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="60"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="58"/>
+      <c r="C7" s="61"/>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="58"/>
+      <c r="C9" s="61"/>
       <c r="E9" s="40"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="58"/>
+      <c r="C10" s="61"/>
       <c r="E10" s="40"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="60"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="58"/>
+      <c r="C11" s="61"/>
       <c r="E11" s="40"/>
     </row>
-    <row r="12" spans="2:5" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
+    <row r="12" spans="2:5" ht="84.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="59"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="46"/>
       <c r="E12" s="50"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J17" s="39"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C18" s="14"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J23" s="38"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J25" s="38"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
     </row>
@@ -4273,18 +4493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903D85C-1DC0-4FC3-B1C3-46B69AB9CE86}">
   <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>195</v>
       </c>
@@ -4292,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
@@ -4312,7 +4532,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -4332,7 +4552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4349,7 +4569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4366,7 +4586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4380,7 +4600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -4415,23 +4635,23 @@
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
-    <col min="8" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" customWidth="1"/>
-    <col min="14" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="38.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" customWidth="1"/>
+    <col min="7" max="7" width="45.36328125" customWidth="1"/>
+    <col min="8" max="10" width="8.54296875" customWidth="1"/>
+    <col min="11" max="11" width="23.6328125" customWidth="1"/>
+    <col min="12" max="12" width="23.54296875" customWidth="1"/>
+    <col min="13" max="13" width="35.90625" customWidth="1"/>
+    <col min="14" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +4672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4463,7 +4683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4477,7 +4697,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4491,7 +4711,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4505,7 +4725,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4519,7 +4739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4533,7 +4753,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4553,7 +4773,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4573,7 +4793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4596,7 +4816,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4619,7 +4839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4642,7 +4862,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -4660,7 +4880,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -4676,7 +4896,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -4690,7 +4910,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -4704,7 +4924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -4718,7 +4938,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -4732,7 +4952,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -4746,7 +4966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -4760,7 +4980,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -4774,7 +4994,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -4788,7 +5008,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -4802,7 +5022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -4816,7 +5036,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -4830,7 +5050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -4844,7 +5064,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -4858,7 +5078,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -4872,7 +5092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -4886,7 +5106,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -4900,7 +5120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -4914,7 +5134,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -4928,7 +5148,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -4942,7 +5162,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -4959,7 +5179,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -4979,7 +5199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="129" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="126.5" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -4999,7 +5219,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -5019,7 +5239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -5039,7 +5259,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -5059,7 +5279,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -5079,7 +5299,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -5099,7 +5319,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -5119,7 +5339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -5139,7 +5359,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="17" t="s">
         <v>54</v>
       </c>
@@ -5159,7 +5379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B45" s="17" t="s">
         <v>54</v>
       </c>
@@ -5179,7 +5399,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B46" s="17" t="s">
         <v>54</v>
       </c>
@@ -5199,7 +5419,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="17" t="s">
         <v>64</v>
       </c>
@@ -5219,7 +5439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="17" t="s">
         <v>64</v>
       </c>
@@ -5239,7 +5459,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
         <v>64</v>
       </c>
@@ -5259,7 +5479,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="17" t="s">
         <v>64</v>
       </c>
@@ -5279,7 +5499,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B51" s="17" t="s">
         <v>64</v>
       </c>
@@ -5299,7 +5519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="17" t="s">
         <v>64</v>
       </c>
@@ -5319,7 +5539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="17" t="s">
         <v>64</v>
       </c>
@@ -5339,7 +5559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="17" t="s">
         <v>64</v>
       </c>
@@ -5359,7 +5579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
         <v>64</v>
       </c>
@@ -5379,7 +5599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="17" t="s">
         <v>64</v>
       </c>
@@ -5399,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="17" t="s">
         <v>64</v>
       </c>
@@ -5419,7 +5639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" s="17" t="s">
         <v>64</v>
       </c>
@@ -5439,7 +5659,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B59" s="17" t="s">
         <v>64</v>
       </c>
@@ -5459,7 +5679,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B60" s="17" t="s">
         <v>64</v>
       </c>
@@ -5479,7 +5699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B61" s="17" t="s">
         <v>64</v>
       </c>
@@ -5499,7 +5719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="17" t="s">
         <v>64</v>
       </c>
@@ -5519,7 +5739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="17" t="s">
         <v>64</v>
       </c>
@@ -5539,7 +5759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B64" s="17" t="s">
         <v>64</v>
       </c>
@@ -5559,7 +5779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="17" t="s">
         <v>64</v>
       </c>
@@ -5579,7 +5799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="17" t="s">
         <v>64</v>
       </c>
@@ -5599,7 +5819,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="17" t="s">
         <v>64</v>
       </c>
@@ -5619,7 +5839,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B68" s="17" t="s">
         <v>64</v>
       </c>
@@ -5639,7 +5859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B69" s="17" t="s">
         <v>64</v>
       </c>
@@ -5659,7 +5879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="17" t="s">
         <v>54</v>
       </c>
@@ -5679,7 +5899,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B71" s="17" t="s">
         <v>64</v>
       </c>
@@ -5699,7 +5919,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="17" t="s">
         <v>64</v>
       </c>
@@ -5719,7 +5939,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B73" s="17" t="s">
         <v>64</v>
       </c>
@@ -5739,7 +5959,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B74" s="17" t="s">
         <v>64</v>
       </c>
@@ -5759,7 +5979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B75" s="17" t="s">
         <v>64</v>
       </c>
@@ -5779,7 +5999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B76" s="17" t="s">
         <v>64</v>
       </c>
@@ -5799,7 +6019,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="17" t="s">
         <v>64</v>
       </c>
@@ -5819,7 +6039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B78" s="17" t="s">
         <v>64</v>
       </c>
@@ -5839,7 +6059,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B79" s="17" t="s">
         <v>64</v>
       </c>
@@ -5859,7 +6079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B80" s="17" t="s">
         <v>64</v>
       </c>
@@ -5879,7 +6099,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B81" s="17" t="s">
         <v>64</v>
       </c>
@@ -5899,7 +6119,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B82" s="17" t="s">
         <v>64</v>
       </c>
@@ -5919,7 +6139,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B83" s="17" t="s">
         <v>64</v>
       </c>
@@ -5939,7 +6159,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B84" s="17" t="s">
         <v>64</v>
       </c>
@@ -5959,7 +6179,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B85" s="17" t="s">
         <v>54</v>
       </c>
@@ -5979,7 +6199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B86" s="17" t="s">
         <v>64</v>
       </c>
@@ -5999,7 +6219,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B87" s="17" t="s">
         <v>64</v>
       </c>
@@ -6019,7 +6239,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B88" s="17" t="s">
         <v>64</v>
       </c>
@@ -6039,7 +6259,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B89" s="17" t="s">
         <v>64</v>
       </c>
@@ -6059,7 +6279,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B90" s="17" t="s">
         <v>54</v>
       </c>
@@ -6079,7 +6299,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B91" s="17" t="s">
         <v>64</v>
       </c>
@@ -6099,7 +6319,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B92" s="17" t="s">
         <v>64</v>
       </c>
@@ -6119,7 +6339,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="17" t="s">
         <v>64</v>
       </c>
@@ -6139,7 +6359,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B94" s="17" t="s">
         <v>64</v>
       </c>
@@ -6159,7 +6379,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B95" s="17" t="s">
         <v>64</v>
       </c>
@@ -6179,7 +6399,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B96" s="17" t="s">
         <v>54</v>
       </c>
@@ -6199,7 +6419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B97" s="17" t="s">
         <v>64</v>
       </c>
@@ -6219,7 +6439,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B98" s="17" t="s">
         <v>54</v>
       </c>
@@ -6239,7 +6459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B99" s="17" t="s">
         <v>64</v>
       </c>
@@ -6259,7 +6479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B100" s="17" t="s">
         <v>64</v>
       </c>
@@ -6279,7 +6499,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B101" s="17" t="s">
         <v>64</v>
       </c>
@@ -6299,7 +6519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B102" s="17" t="s">
         <v>64</v>
       </c>
@@ -6319,7 +6539,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="116" x14ac:dyDescent="0.35">
       <c r="B103" s="17" t="s">
         <v>54</v>
       </c>
@@ -6339,7 +6559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B104" s="17" t="s">
         <v>64</v>
       </c>
@@ -6359,7 +6579,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B105" s="17" t="s">
         <v>64</v>
       </c>
@@ -6379,7 +6599,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B106" s="17" t="s">
         <v>54</v>
       </c>
@@ -6399,7 +6619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B107" s="17" t="s">
         <v>64</v>
       </c>
@@ -6419,7 +6639,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B108" s="17" t="s">
         <v>64</v>
       </c>
@@ -6439,7 +6659,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B109" s="17" t="s">
         <v>64</v>
       </c>
@@ -6459,7 +6679,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B110" s="17" t="s">
         <v>64</v>
       </c>
@@ -6479,7 +6699,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B111" s="17" t="s">
         <v>64</v>
       </c>
@@ -6499,7 +6719,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -6519,7 +6739,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B113" s="17" t="s">
         <v>365</v>
       </c>
@@ -6539,7 +6759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B114" s="17" t="s">
         <v>365</v>
       </c>
@@ -6559,7 +6779,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B115" s="17" t="s">
         <v>365</v>
       </c>
@@ -6579,7 +6799,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B116" s="17" t="s">
         <v>375</v>
       </c>
@@ -6599,7 +6819,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="116" x14ac:dyDescent="0.35">
       <c r="B117" s="17" t="s">
         <v>64</v>
       </c>
@@ -6619,7 +6839,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B118" s="17" t="s">
         <v>64</v>
       </c>
@@ -6639,7 +6859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B119" s="17" t="s">
         <v>54</v>
       </c>
@@ -6659,7 +6879,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B120" s="17" t="s">
         <v>64</v>
       </c>
@@ -6679,7 +6899,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B121" s="17" t="s">
         <v>64</v>
       </c>
@@ -6699,7 +6919,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B122" s="17" t="s">
         <v>365</v>
       </c>
@@ -6719,7 +6939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B123" s="17" t="s">
         <v>365</v>
       </c>
@@ -6739,7 +6959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B124" s="17" t="s">
         <v>365</v>
       </c>
@@ -6759,7 +6979,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="125" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B125" s="17" t="s">
         <v>64</v>
       </c>
@@ -6779,7 +6999,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B126" s="17" t="s">
         <v>64</v>
       </c>
@@ -6799,7 +7019,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="127" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B127" s="17" t="s">
         <v>64</v>
       </c>
@@ -6819,7 +7039,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="128" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B128" s="17" t="s">
         <v>396</v>
       </c>
@@ -6839,7 +7059,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B129" s="17" t="s">
         <v>396</v>
       </c>
@@ -6859,7 +7079,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B130" s="17" t="s">
         <v>396</v>
       </c>
@@ -6879,7 +7099,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="131" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" ht="87" x14ac:dyDescent="0.35">
       <c r="B131" s="17" t="s">
         <v>64</v>
       </c>
@@ -6899,7 +7119,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B132" s="17" t="s">
         <v>365</v>
       </c>
@@ -6919,7 +7139,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B133" s="17" t="s">
         <v>365</v>
       </c>
@@ -6939,7 +7159,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B134" s="17" t="s">
         <v>64</v>
       </c>
@@ -6959,7 +7179,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B135" s="17" t="s">
         <v>64</v>
       </c>
@@ -6979,7 +7199,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B136" s="17" t="s">
         <v>64</v>
       </c>
